--- a/Big Bang/Batch Upload/Student/SMP Student Tracker(with validation).xlsx
+++ b/Big Bang/Batch Upload/Student/SMP Student Tracker(with validation).xlsx
@@ -8,18 +8,17 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$2</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Contract?</t>
   </si>
@@ -43,13 +42,160 @@
   </si>
   <si>
     <t>Student_ID_Number</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>School</t>
+  </si>
+  <si>
+    <t>PUP</t>
+  </si>
+  <si>
+    <t>TUP</t>
+  </si>
+  <si>
+    <t>BatStateU</t>
+  </si>
+  <si>
+    <t>CvSU</t>
+  </si>
+  <si>
+    <t>TarSU</t>
+  </si>
+  <si>
+    <t>DMMMSU</t>
+  </si>
+  <si>
+    <t>PangSu</t>
+  </si>
+  <si>
+    <t>BengSU</t>
+  </si>
+  <si>
+    <t>BulSU</t>
+  </si>
+  <si>
+    <t>USEP</t>
+  </si>
+  <si>
+    <t>WVCST</t>
+  </si>
+  <si>
+    <t>WVSU</t>
+  </si>
+  <si>
+    <t>NorSU</t>
+  </si>
+  <si>
+    <t>CHMSC</t>
+  </si>
+  <si>
+    <t>NIPSC</t>
+  </si>
+  <si>
+    <t>LSPU-Sta Cruz</t>
+  </si>
+  <si>
+    <t>LSPU-San Pablo</t>
+  </si>
+  <si>
+    <t>LSPU-Los Banos</t>
+  </si>
+  <si>
+    <t>LSPU-Siniloan</t>
+  </si>
+  <si>
+    <t>BatStateU-Main I</t>
+  </si>
+  <si>
+    <t>BatStateU-Main II</t>
+  </si>
+  <si>
+    <t>BatStateU-Balayan</t>
+  </si>
+  <si>
+    <t>BatStateU-Lemery</t>
+  </si>
+  <si>
+    <t>BatStateU-Lipa</t>
+  </si>
+  <si>
+    <t>BatStateU-Lobo</t>
+  </si>
+  <si>
+    <t>BatStateU-Malvar</t>
+  </si>
+  <si>
+    <t>BatStateU-Rosario</t>
+  </si>
+  <si>
+    <t>BatStateU-San Juan</t>
+  </si>
+  <si>
+    <t>BatStateU-Nasugbu</t>
+  </si>
+  <si>
+    <t>CvSU-Indang</t>
+  </si>
+  <si>
+    <t>CvSU-Rosario</t>
+  </si>
+  <si>
+    <t>CvSU-Carmona</t>
+  </si>
+  <si>
+    <t>CvSU-Naic</t>
+  </si>
+  <si>
+    <t>CvSU-Cavite City</t>
+  </si>
+  <si>
+    <t>CvSU-Tanza</t>
+  </si>
+  <si>
+    <t>CvSU-Trece Martires</t>
+  </si>
+  <si>
+    <t>CvSU-Imus</t>
+  </si>
+  <si>
+    <t>CvSU-Silang</t>
+  </si>
+  <si>
+    <t>CvSU-Bacoor</t>
+  </si>
+  <si>
+    <t>CvSU-General Trias</t>
+  </si>
+  <si>
+    <t>PNU-Main</t>
+  </si>
+  <si>
+    <t>BulSU-Malolos</t>
+  </si>
+  <si>
+    <t>BulSU-Bustos</t>
+  </si>
+  <si>
+    <t>BulSU-Meneses</t>
+  </si>
+  <si>
+    <t>BulSU-Sarmiento</t>
+  </si>
+  <si>
+    <t>BulSU-Hagonoy</t>
+  </si>
+  <si>
+    <t>Subject</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,13 +223,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -94,7 +233,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -149,32 +288,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+      </font>
     </dxf>
     <dxf>
       <border outline="0">
@@ -184,12 +334,38 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -202,19 +378,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:H1048576" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1">
-  <autoFilter ref="A1:H1048576"/>
-  <tableColumns count="8">
-    <tableColumn id="1" name="Last_Name"/>
-    <tableColumn id="2" name="First_Name"/>
-    <tableColumn id="3" name="Middle_Initial"/>
-    <tableColumn id="4" name="Student_ID_Number"/>
-    <tableColumn id="5" name="Contract?"/>
-    <tableColumn id="6" name="Status" dataDxfId="0"/>
-    <tableColumn id="7" name="Grades"/>
-    <tableColumn id="8" name="Remarks"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:J1048576" totalsRowShown="0" headerRowDxfId="0" dataDxfId="2" headerRowBorderDxfId="1">
+  <autoFilter ref="A1:J1048576"/>
+  <tableColumns count="10">
+    <tableColumn id="1" name="Subject" dataDxfId="12"/>
+    <tableColumn id="2" name="Last_Name" dataDxfId="11"/>
+    <tableColumn id="3" name="First_Name" dataDxfId="10"/>
+    <tableColumn id="4" name="Middle_Initial" dataDxfId="9"/>
+    <tableColumn id="5" name="Student_ID_Number" dataDxfId="8"/>
+    <tableColumn id="6" name="School" dataDxfId="7"/>
+    <tableColumn id="7" name="Contract?" dataDxfId="6"/>
+    <tableColumn id="8" name="Status" dataDxfId="5"/>
+    <tableColumn id="9" name="Grades" dataDxfId="4"/>
+    <tableColumn id="10" name="Remarks" dataDxfId="3"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -505,84 +683,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:XFD1048576"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" style="6" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="2" width="19.5703125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="25.28515625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="13" style="6" customWidth="1"/>
+    <col min="10" max="10" width="34.42578125" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="6" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="5" t="s">
         <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <dataValidations count="9">
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Invalid input._x000a_Must only be 10 characters long." prompt="ID number must be 10 characters at most." sqref="D3:D1048576 D1">
-      <formula1>1</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Invalid input._x000a_Must only be 45 characters long_x000a_" prompt="Name must be 45 characters at most" sqref="A3:A1048576 A1">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Invalid input._x000a_Must only be 45 characters long_x000a_" prompt="Name must be 45 characters at most" sqref="B3:B1048576">
       <formula1>1</formula1>
       <formula2>45</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Invalid input._x000a_Must only be 45 characters long" prompt="Name must be 45 characters at most." sqref="B3:B1048576 B1">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Invalid input._x000a_Must only be 45 characters long" prompt="Name must be 45 characters at most." sqref="C3:C1048576">
       <formula1>1</formula1>
       <formula2>45</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Invalid input. Please indicate initial only." prompt="Text must contain 5 characters at most." sqref="C3:C1048576 C1">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Invalid input. Please indicate initial only." prompt="Text must contain 5 characters at most." sqref="D3:D1048576">
       <formula1>0</formula1>
       <formula2>5</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Invalid input._x000a_Indicate if answer is yes or no." prompt="Answer must be yes or no." sqref="E3:E1048576 E1">
-      <formula1>"yes,no"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Invalid input. _x000a_Must be Status must be currently taking, dropped, passed or fail." prompt="Status must be currently taking, dropped, passed or fail." sqref="F1">
-      <formula1>"currently taking,dropped,passed,fail"</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Invalid input. Remarks must be 255 characters or less." prompt="Remarks must be less than 255 characters" sqref="H3:H1048576 H1">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Invalid input. Remarks must be 255 characters or less." prompt="Remarks must be less than 255 characters" sqref="J3:J1048576">
       <formula1>1</formula1>
       <formula2>255</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Invalid input._x000a_Grade must be 5 characters or less" prompt="Grade must be 5 characters or less." sqref="G3:G1048576 G1">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Invalid input._x000a_Grade must be 5 characters or less" prompt="Grade must be 5 characters or less." sqref="I3:I1048576">
       <formula1>0</formula1>
       <formula2>5</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Invalid input. _x000a_Status must be currently taking, dropped, passed or fail." prompt="Status must be currently taking, dropped, passed or fail." sqref="F2:F1048576">
-      <formula1>"currently taking,dropped,passed,fail"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Invalid input. _x000a_Status must be currently taking, dropped, passed or fail." prompt="Status must be currently taking, dropped, passed or fail." sqref="H2:H1048576">
+      <formula1>"Currently Taking, Passed, Fail,Dropped"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Invalid input._x000a_Indicate if answer is yes or no." prompt="Answer must be yes or no." sqref="G2:G1048576">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Invalid input._x000a_Please pick from the list._x000a_" promptTitle="Subject" prompt="-BPO101_x000a_-BPO102_x000a_-Systems Thinking_x000a_-Service Culture_x000a_-Business Communication" sqref="A2:A1048576">
+      <formula1>"BPO101,BPO102,SYSTH101,SC101,BizCom"</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Invalid input._x000a_Must only be 10 characters long." prompt="ID number must be 10 characters at most." sqref="E2:E1048576">
+      <formula1>1</formula1>
+      <formula2>10</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -590,29 +780,172 @@
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Sheet2!$B$4:$AU$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2:F1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B4:AU4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:AU4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="4" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R4" t="s">
+        <v>26</v>
+      </c>
+      <c r="S4" t="s">
+        <v>27</v>
+      </c>
+      <c r="T4" t="s">
+        <v>28</v>
+      </c>
+      <c r="U4" t="s">
+        <v>29</v>
+      </c>
+      <c r="V4" t="s">
+        <v>30</v>
+      </c>
+      <c r="W4" t="s">
+        <v>31</v>
+      </c>
+      <c r="X4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>